--- a/explanation.xlsx
+++ b/explanation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,26 @@
   </si>
   <si>
     <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题与备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右无关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creep和tower是否可以合成一个内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creep和tower中的死亡和有关物理引擎的部分还没写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄类技能怎么预留接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -37,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +88,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +160,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -425,9 +454,11 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="10" max="10" width="78.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +470,27 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
